--- a/backend/data/SelectedTeams.xlsx
+++ b/backend/data/SelectedTeams.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT\REGISTRATION\Dev_hack1\backend\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT\REGISTRATION\Dev_food\backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D6AE9E-67A4-4B4C-BE1D-B73A3EEA35F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714818B2-9580-4D03-8B90-96DD71354605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{88967F07-2EC0-4E1C-9873-DD34BC2F538A}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="238">
   <si>
     <t>TEAM NO</t>
   </si>
@@ -28,9 +28,6 @@
     <t>TEAM NAME</t>
   </si>
   <si>
-    <t>COLLEGE NAME</t>
-  </si>
-  <si>
     <t>Member 1</t>
   </si>
   <si>
@@ -49,9 +46,6 @@
     <t>Code Forge</t>
   </si>
   <si>
-    <t>JSS SCIENCE AND TECHNOLOGY</t>
-  </si>
-  <si>
     <t>Preetham HJ</t>
   </si>
   <si>
@@ -70,9 +64,6 @@
     <t>CoreAstra</t>
   </si>
   <si>
-    <t>MS Ramaiah institute of technology, Bangalore</t>
-  </si>
-  <si>
     <t>Mayur Kumar G</t>
   </si>
   <si>
@@ -91,9 +82,6 @@
     <t>Care Bots</t>
   </si>
   <si>
-    <t>Rajeev institute of technology</t>
-  </si>
-  <si>
     <t xml:space="preserve">Manoj M Yalavigi </t>
   </si>
   <si>
@@ -112,9 +100,6 @@
     <t>CodePrix</t>
   </si>
   <si>
-    <t>NMAMIT nitte</t>
-  </si>
-  <si>
     <t>Mohammed Mustafa</t>
   </si>
   <si>
@@ -130,9 +115,6 @@
     <t>DietCode</t>
   </si>
   <si>
-    <t>NMAM institute of technology, NITTE</t>
-  </si>
-  <si>
     <t>Mohammed Naurez</t>
   </si>
   <si>
@@ -148,9 +130,6 @@
     <t>ARISE</t>
   </si>
   <si>
-    <t>RAJEEV INSTITUTE OF TECHNOLOGY,  HASSAN</t>
-  </si>
-  <si>
     <t>TEJASWINI S</t>
   </si>
   <si>
@@ -169,9 +148,6 @@
     <t>Ruthless</t>
   </si>
   <si>
-    <t>KIT, TIPTUR</t>
-  </si>
-  <si>
     <t>Shreyas L Arer</t>
   </si>
   <si>
@@ -190,9 +166,6 @@
     <t>CodeBlooded</t>
   </si>
   <si>
-    <t>JSS Science and Technology University</t>
-  </si>
-  <si>
     <t>Varun D</t>
   </si>
   <si>
@@ -211,9 +184,6 @@
     <t>CodeSphere</t>
   </si>
   <si>
-    <t>GOVT. ENGG COLLEGE, HASSAN</t>
-  </si>
-  <si>
     <t>Poornashree</t>
   </si>
   <si>
@@ -232,9 +202,6 @@
     <t>Nextgen Coders</t>
   </si>
   <si>
-    <t>GM University</t>
-  </si>
-  <si>
     <t>Vinay M</t>
   </si>
   <si>
@@ -253,9 +220,6 @@
     <t>Clover</t>
   </si>
   <si>
-    <t>NAVKIS, HASSAN</t>
-  </si>
-  <si>
     <t>Noor Laiba Maheen</t>
   </si>
   <si>
@@ -274,9 +238,6 @@
     <t>Aura--</t>
   </si>
   <si>
-    <t>Jss science and technology university</t>
-  </si>
-  <si>
     <t>Jayanth DN</t>
   </si>
   <si>
@@ -295,9 +256,6 @@
     <t>WI-FIGHTERS</t>
   </si>
   <si>
-    <t>REVA UNIVERSITY</t>
-  </si>
-  <si>
     <t>Shreyank prabhu CB</t>
   </si>
   <si>
@@ -316,9 +274,6 @@
     <t>Asif Anwar</t>
   </si>
   <si>
-    <t>PES, MANDYA</t>
-  </si>
-  <si>
     <t>Anwar Asif</t>
   </si>
   <si>
@@ -337,9 +292,6 @@
     <t>SOMESHWARA</t>
   </si>
   <si>
-    <t>Rajeev Institute of Technology,Hassan</t>
-  </si>
-  <si>
     <t>Chethan Someshwar SM</t>
   </si>
   <si>
@@ -358,9 +310,6 @@
     <t>MindMatrix</t>
   </si>
   <si>
-    <t>Malnad College of Engineering, Hassan</t>
-  </si>
-  <si>
     <t>Manasa A S</t>
   </si>
   <si>
@@ -376,9 +325,6 @@
     <t>Innovative Hubs</t>
   </si>
   <si>
-    <t>Adhichunchanagiri institute of technology</t>
-  </si>
-  <si>
     <t>Nandan K R</t>
   </si>
   <si>
@@ -391,9 +337,6 @@
     <t>Code Warriors</t>
   </si>
   <si>
-    <t>Malnad College of engineering</t>
-  </si>
-  <si>
     <t>Hemanth S Gowda</t>
   </si>
   <si>
@@ -415,18 +358,12 @@
     <t>HEMA CHANDU K R</t>
   </si>
   <si>
-    <t xml:space="preserve"> BHAVANI H T DEEKSHA H M</t>
-  </si>
-  <si>
     <t>DH-028</t>
   </si>
   <si>
     <t>Wings</t>
   </si>
   <si>
-    <t>Malnad College of Engineering</t>
-  </si>
-  <si>
     <t>Chandrakala</t>
   </si>
   <si>
@@ -445,9 +382,6 @@
     <t>Anonymous</t>
   </si>
   <si>
-    <t>Kalpataru institute of technology</t>
-  </si>
-  <si>
     <t>Chandranatha T A</t>
   </si>
   <si>
@@ -466,9 +400,6 @@
     <t>ALGO_RYTHM</t>
   </si>
   <si>
-    <t>SJCE , JSSSTU - MYSORE</t>
-  </si>
-  <si>
     <t>GAGAN C N</t>
   </si>
   <si>
@@ -487,9 +418,6 @@
     <t>Suspectraa</t>
   </si>
   <si>
-    <t>Channabasaveshwara Institute of Technology</t>
-  </si>
-  <si>
     <t>Pooja Shree A R</t>
   </si>
   <si>
@@ -508,9 +436,6 @@
     <t>CodeCures</t>
   </si>
   <si>
-    <t>Ballari Institute of Technology and Management</t>
-  </si>
-  <si>
     <t>Swetha Rani H S</t>
   </si>
   <si>
@@ -529,9 +454,6 @@
     <t>Phantom Crew</t>
   </si>
   <si>
-    <t>KLE Technological University's, Dr. M. S. Sheshgiri Campus</t>
-  </si>
-  <si>
     <t>Rohan Halaj</t>
   </si>
   <si>
@@ -550,9 +472,6 @@
     <t>404 FOUND</t>
   </si>
   <si>
-    <t>MCE</t>
-  </si>
-  <si>
     <t>Kiran BR</t>
   </si>
   <si>
@@ -589,9 +508,6 @@
     <t>MediAI</t>
   </si>
   <si>
-    <t>Government engineering college mosale hosahalli</t>
-  </si>
-  <si>
     <t>Akshata k patil</t>
   </si>
   <si>
@@ -610,9 +526,6 @@
     <t>Trio</t>
   </si>
   <si>
-    <t>Navkis College of Engineering</t>
-  </si>
-  <si>
     <t>Bhavana H.P</t>
   </si>
   <si>
@@ -628,9 +541,6 @@
     <t>Power Pulse</t>
   </si>
   <si>
-    <t>Aadichunchanagiri Institute Of Technology</t>
-  </si>
-  <si>
     <t>G M Ankitha</t>
   </si>
   <si>
@@ -649,9 +559,6 @@
     <t>Code Vortex</t>
   </si>
   <si>
-    <t>Nxt wave</t>
-  </si>
-  <si>
     <t>G. R. Harsha</t>
   </si>
   <si>
@@ -685,9 +592,6 @@
     <t>GCodz</t>
   </si>
   <si>
-    <t>JSS SCIENCE AND TECHNOLOGY UNIVERSITY (SJCE)</t>
-  </si>
-  <si>
     <t>DHRITI TS</t>
   </si>
   <si>
@@ -724,9 +628,6 @@
     <t>Synara</t>
   </si>
   <si>
-    <t>The National Institute of Engineering</t>
-  </si>
-  <si>
     <t>Anjana Suresh Kumar</t>
   </si>
   <si>
@@ -745,9 +646,6 @@
     <t>Dev Drift</t>
   </si>
   <si>
-    <t xml:space="preserve">Malnad college of Engineering </t>
-  </si>
-  <si>
     <t>BALAJI POOJAR</t>
   </si>
   <si>
@@ -766,9 +664,6 @@
     <t>SnapdragonX</t>
   </si>
   <si>
-    <t>Vidyavardhaka College of Engineering</t>
-  </si>
-  <si>
     <t>Abhilash A</t>
   </si>
   <si>
@@ -805,9 +700,6 @@
     <t>Code Crew</t>
   </si>
   <si>
-    <t>MCE,Hassan</t>
-  </si>
-  <si>
     <t>Hitasmi G R</t>
   </si>
   <si>
@@ -826,9 +718,6 @@
     <t xml:space="preserve">Terra minds </t>
   </si>
   <si>
-    <t>Jawaharlal Nehru New college of engineering</t>
-  </si>
-  <si>
     <t>Anushree M</t>
   </si>
   <si>
@@ -839,13 +728,19 @@
   </si>
   <si>
     <t xml:space="preserve"> Nikitha Poojary </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BHAVANI H T</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DEEKSHA H M</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -976,6 +871,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1679,15 +1580,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{958158FB-00F3-4A69-8082-30AE700A2CB1}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1706,904 +1607,785 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
+      <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>24</v>
       </c>
-      <c r="E4" t="s">
+      <c r="B5" t="s">
         <v>25</v>
       </c>
-      <c r="F4" t="s">
+      <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="G4" t="s">
+      <c r="D5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="E5" t="s">
         <v>28</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>29</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
         <v>30</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
         <v>31</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D6" t="s">
         <v>32</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>34</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>35</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>36</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>37</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>38</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>40</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>41</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>42</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>43</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>44</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F8" t="s">
         <v>45</v>
       </c>
-      <c r="G7" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B9" t="s">
         <v>47</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C9" t="s">
         <v>48</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D9" t="s">
         <v>49</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E9" t="s">
         <v>50</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F9" t="s">
         <v>51</v>
       </c>
-      <c r="F8" t="s">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>52</v>
       </c>
-      <c r="G8" t="s">
+      <c r="B10" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="C10" t="s">
         <v>54</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D10" t="s">
         <v>55</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E10" t="s">
         <v>56</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F10" t="s">
         <v>57</v>
       </c>
-      <c r="E9" t="s">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>58</v>
       </c>
-      <c r="F9" t="s">
+      <c r="B11" t="s">
         <v>59</v>
       </c>
-      <c r="G9" t="s">
+      <c r="C11" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="D11" t="s">
         <v>61</v>
       </c>
-      <c r="B10" t="s">
+      <c r="E11" t="s">
         <v>62</v>
       </c>
-      <c r="C10" t="s">
+      <c r="F11" t="s">
         <v>63</v>
       </c>
-      <c r="D10" t="s">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>64</v>
       </c>
-      <c r="E10" t="s">
+      <c r="B12" t="s">
         <v>65</v>
       </c>
-      <c r="F10" t="s">
+      <c r="C12" t="s">
         <v>66</v>
       </c>
-      <c r="G10" t="s">
+      <c r="D12" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="E12" t="s">
         <v>68</v>
       </c>
-      <c r="B11" t="s">
+      <c r="F12" t="s">
         <v>69</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>70</v>
       </c>
-      <c r="D11" t="s">
+      <c r="B13" t="s">
         <v>71</v>
       </c>
-      <c r="E11" t="s">
+      <c r="C13" t="s">
         <v>72</v>
       </c>
-      <c r="F11" t="s">
+      <c r="D13" t="s">
         <v>73</v>
       </c>
-      <c r="G11" t="s">
+      <c r="E13" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="F13" t="s">
         <v>75</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>76</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B14" t="s">
         <v>77</v>
       </c>
-      <c r="D12" t="s">
+      <c r="C14" t="s">
         <v>78</v>
       </c>
-      <c r="E12" t="s">
+      <c r="D14" t="s">
         <v>79</v>
       </c>
-      <c r="F12" t="s">
+      <c r="E14" t="s">
         <v>80</v>
       </c>
-      <c r="G12" t="s">
+      <c r="F14" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>82</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" t="s">
         <v>83</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C15" t="s">
         <v>84</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D15" t="s">
         <v>85</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E15" t="s">
         <v>86</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F15" t="s">
         <v>87</v>
       </c>
-      <c r="G13" t="s">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="B16" t="s">
         <v>89</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C16" t="s">
         <v>90</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D16" t="s">
         <v>91</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E16" t="s">
         <v>92</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F16" t="s">
         <v>93</v>
       </c>
-      <c r="F14" t="s">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>94</v>
       </c>
-      <c r="G14" t="s">
+      <c r="B17" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="C17" t="s">
         <v>96</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D17" t="s">
         <v>97</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E17" t="s">
         <v>98</v>
       </c>
-      <c r="D15" t="s">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>99</v>
       </c>
-      <c r="E15" t="s">
+      <c r="B18" t="s">
         <v>100</v>
       </c>
-      <c r="F15" t="s">
+      <c r="C18" t="s">
         <v>101</v>
       </c>
-      <c r="G15" t="s">
+      <c r="D18" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>103</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B19" t="s">
         <v>104</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C19" t="s">
         <v>105</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D19" t="s">
         <v>106</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E19" t="s">
         <v>107</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F19" t="s">
         <v>108</v>
       </c>
-      <c r="G16" t="s">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B20" t="s">
         <v>110</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C20" t="s">
         <v>111</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D20" t="s">
+        <v>236</v>
+      </c>
+      <c r="F20" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>112</v>
       </c>
-      <c r="D17" t="s">
+      <c r="B21" t="s">
         <v>113</v>
       </c>
-      <c r="E17" t="s">
+      <c r="C21" t="s">
         <v>114</v>
       </c>
-      <c r="F17" t="s">
+      <c r="D21" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="E21" t="s">
         <v>116</v>
       </c>
-      <c r="B18" t="s">
+      <c r="F21" t="s">
         <v>117</v>
       </c>
-      <c r="C18" t="s">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>118</v>
       </c>
-      <c r="D18" t="s">
+      <c r="B22" t="s">
         <v>119</v>
       </c>
-      <c r="E18" t="s">
+      <c r="C22" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="D22" t="s">
         <v>121</v>
       </c>
-      <c r="B19" t="s">
+      <c r="E22" t="s">
         <v>122</v>
       </c>
-      <c r="C19" t="s">
+      <c r="F22" t="s">
         <v>123</v>
       </c>
-      <c r="D19" t="s">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>124</v>
       </c>
-      <c r="E19" t="s">
+      <c r="B23" t="s">
         <v>125</v>
       </c>
-      <c r="F19" t="s">
+      <c r="C23" t="s">
         <v>126</v>
       </c>
-      <c r="G19" t="s">
+      <c r="D23" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="E23" t="s">
         <v>128</v>
       </c>
-      <c r="B20" t="s">
+      <c r="F23" t="s">
         <v>129</v>
       </c>
-      <c r="C20" t="s">
-        <v>123</v>
-      </c>
-      <c r="D20" t="s">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>130</v>
       </c>
-      <c r="E20" t="s">
+      <c r="B24" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="C24" t="s">
         <v>132</v>
       </c>
-      <c r="B21" t="s">
+      <c r="D24" t="s">
         <v>133</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E24" t="s">
         <v>134</v>
       </c>
-      <c r="D21" t="s">
+      <c r="F24" t="s">
         <v>135</v>
       </c>
-      <c r="E21" t="s">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>136</v>
       </c>
-      <c r="F21" t="s">
+      <c r="B25" t="s">
         <v>137</v>
       </c>
-      <c r="G21" t="s">
+      <c r="C25" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="D25" t="s">
         <v>139</v>
       </c>
-      <c r="B22" t="s">
+      <c r="E25" t="s">
         <v>140</v>
       </c>
-      <c r="C22" t="s">
+      <c r="F25" t="s">
         <v>141</v>
       </c>
-      <c r="D22" t="s">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>142</v>
       </c>
-      <c r="E22" t="s">
+      <c r="B26" t="s">
         <v>143</v>
       </c>
-      <c r="F22" t="s">
+      <c r="C26" t="s">
         <v>144</v>
       </c>
-      <c r="G22" t="s">
+      <c r="D26" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="E26" t="s">
         <v>146</v>
       </c>
-      <c r="B23" t="s">
+      <c r="F26" t="s">
         <v>147</v>
       </c>
-      <c r="C23" t="s">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>148</v>
       </c>
-      <c r="D23" t="s">
+      <c r="B27" t="s">
         <v>149</v>
       </c>
-      <c r="E23" t="s">
+      <c r="C27" t="s">
         <v>150</v>
       </c>
-      <c r="F23" t="s">
+      <c r="D27" t="s">
         <v>151</v>
       </c>
-      <c r="G23" t="s">
+      <c r="E27" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="F27" t="s">
         <v>153</v>
       </c>
-      <c r="B24" t="s">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>154</v>
       </c>
-      <c r="C24" t="s">
+      <c r="B28" t="s">
         <v>155</v>
       </c>
-      <c r="D24" t="s">
+      <c r="C28" t="s">
         <v>156</v>
       </c>
-      <c r="E24" t="s">
+      <c r="D28" t="s">
         <v>157</v>
       </c>
-      <c r="F24" t="s">
+      <c r="E28" t="s">
         <v>158</v>
       </c>
-      <c r="G24" t="s">
+      <c r="F28" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>160</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B29" t="s">
         <v>161</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C29" t="s">
         <v>162</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D29" t="s">
         <v>163</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E29" t="s">
         <v>164</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F29" t="s">
         <v>165</v>
       </c>
-      <c r="G25" t="s">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="B30" t="s">
         <v>167</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C30" t="s">
         <v>168</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D30" t="s">
         <v>169</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E30" t="s">
         <v>170</v>
       </c>
-      <c r="E26" t="s">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>171</v>
       </c>
-      <c r="F26" t="s">
+      <c r="B31" t="s">
         <v>172</v>
       </c>
-      <c r="G26" t="s">
+      <c r="C31" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="D31" t="s">
         <v>174</v>
       </c>
-      <c r="B27" t="s">
+      <c r="E31" t="s">
         <v>175</v>
       </c>
-      <c r="C27" t="s">
+      <c r="F31" t="s">
         <v>176</v>
       </c>
-      <c r="D27" t="s">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>177</v>
       </c>
-      <c r="E27" t="s">
+      <c r="B32" t="s">
         <v>178</v>
       </c>
-      <c r="F27" t="s">
+      <c r="C32" t="s">
         <v>179</v>
       </c>
-      <c r="G27" t="s">
+      <c r="D32" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="E32" t="s">
         <v>181</v>
       </c>
-      <c r="B28" t="s">
+      <c r="F32" t="s">
         <v>182</v>
       </c>
-      <c r="C28" t="s">
-        <v>176</v>
-      </c>
-      <c r="D28" t="s">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>183</v>
       </c>
-      <c r="E28" t="s">
+      <c r="B33" t="s">
         <v>184</v>
       </c>
-      <c r="F28" t="s">
+      <c r="C33" t="s">
         <v>185</v>
       </c>
-      <c r="G28" t="s">
+      <c r="D33" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="E33" t="s">
         <v>187</v>
       </c>
-      <c r="B29" t="s">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>188</v>
       </c>
-      <c r="C29" t="s">
+      <c r="B34" t="s">
         <v>189</v>
       </c>
-      <c r="D29" t="s">
+      <c r="C34" t="s">
         <v>190</v>
       </c>
-      <c r="E29" t="s">
+      <c r="D34" t="s">
         <v>191</v>
       </c>
-      <c r="F29" t="s">
+      <c r="E34" t="s">
         <v>192</v>
       </c>
-      <c r="G29" t="s">
+      <c r="F34" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>194</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B35" t="s">
         <v>195</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C35" t="s">
         <v>196</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D35" t="s">
         <v>197</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E35" t="s">
         <v>198</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F35" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>200</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B36" t="s">
         <v>201</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C36" t="s">
         <v>202</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D36" t="s">
         <v>203</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E36" t="s">
         <v>204</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F36" t="s">
         <v>205</v>
       </c>
-      <c r="G31" t="s">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="B37" t="s">
         <v>207</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C37" t="s">
         <v>208</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D37" t="s">
         <v>209</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E37" t="s">
         <v>210</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F37" t="s">
         <v>211</v>
       </c>
-      <c r="F32" t="s">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>212</v>
       </c>
-      <c r="G32" t="s">
+      <c r="B38" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="C38" t="s">
         <v>214</v>
       </c>
-      <c r="B33" t="s">
+      <c r="D38" t="s">
         <v>215</v>
       </c>
-      <c r="C33" t="s">
-        <v>123</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="E38" t="s">
         <v>216</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F38" t="s">
         <v>217</v>
       </c>
-      <c r="F33" t="s">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="B39" t="s">
         <v>219</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C39" t="s">
         <v>220</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D39" t="s">
         <v>221</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E39" t="s">
         <v>222</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F39" t="s">
         <v>223</v>
       </c>
-      <c r="F34" t="s">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>224</v>
       </c>
-      <c r="G34" t="s">
+      <c r="B40" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="C40" t="s">
         <v>226</v>
       </c>
-      <c r="B35" t="s">
+      <c r="D40" t="s">
         <v>227</v>
       </c>
-      <c r="C35" t="s">
-        <v>148</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="E40" t="s">
         <v>228</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F40" t="s">
         <v>229</v>
       </c>
-      <c r="F35" t="s">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>230</v>
       </c>
-      <c r="G35" t="s">
+      <c r="B41" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="C41" t="s">
         <v>232</v>
       </c>
-      <c r="B36" t="s">
+      <c r="D41" t="s">
         <v>233</v>
       </c>
-      <c r="C36" t="s">
+      <c r="E41" t="s">
         <v>234</v>
       </c>
-      <c r="D36" t="s">
+      <c r="F41" t="s">
         <v>235</v>
       </c>
-      <c r="E36" t="s">
-        <v>236</v>
-      </c>
-      <c r="F36" t="s">
-        <v>237</v>
-      </c>
-      <c r="G36" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>239</v>
-      </c>
-      <c r="B37" t="s">
-        <v>240</v>
-      </c>
-      <c r="C37" t="s">
-        <v>241</v>
-      </c>
-      <c r="D37" t="s">
-        <v>242</v>
-      </c>
-      <c r="E37" t="s">
-        <v>243</v>
-      </c>
-      <c r="F37" t="s">
-        <v>244</v>
-      </c>
-      <c r="G37" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>246</v>
-      </c>
-      <c r="B38" t="s">
-        <v>247</v>
-      </c>
-      <c r="C38" t="s">
-        <v>248</v>
-      </c>
-      <c r="D38" t="s">
-        <v>249</v>
-      </c>
-      <c r="E38" t="s">
-        <v>250</v>
-      </c>
-      <c r="F38" t="s">
-        <v>251</v>
-      </c>
-      <c r="G38" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>253</v>
-      </c>
-      <c r="B39" t="s">
-        <v>254</v>
-      </c>
-      <c r="C39" t="s">
-        <v>261</v>
-      </c>
-      <c r="D39" t="s">
-        <v>255</v>
-      </c>
-      <c r="E39" t="s">
-        <v>256</v>
-      </c>
-      <c r="F39" t="s">
-        <v>257</v>
-      </c>
-      <c r="G39" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>259</v>
-      </c>
-      <c r="B40" t="s">
-        <v>260</v>
-      </c>
-      <c r="C40" t="s">
-        <v>261</v>
-      </c>
-      <c r="D40" t="s">
-        <v>262</v>
-      </c>
-      <c r="E40" t="s">
-        <v>263</v>
-      </c>
-      <c r="F40" t="s">
-        <v>264</v>
-      </c>
-      <c r="G40" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>266</v>
-      </c>
-      <c r="B41" t="s">
-        <v>267</v>
-      </c>
-      <c r="C41" t="s">
-        <v>268</v>
-      </c>
-      <c r="D41" t="s">
-        <v>269</v>
-      </c>
-      <c r="E41" t="s">
-        <v>270</v>
-      </c>
-      <c r="F41" t="s">
-        <v>271</v>
-      </c>
-      <c r="G41" t="s">
-        <v>272</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>